--- a/biology/Zoologie/Apalone/Apalone.xlsx
+++ b/biology/Zoologie/Apalone/Apalone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apalone est un genre de tortues de la famille des Trionychidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apalone est un genre de tortues de la famille des Trionychidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces de ce genre se rencontrent en Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces de ce genre se rencontrent en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (30 juin 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (30 juin 2011) :
 Apalone ferox (Schneider, 1783)
 Apalone mutica (Lesueur, 1827)
 Apalone spinifera (Lesueur, 1827)</t>
@@ -575,7 +591,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes espèces formant ce genre ont été par le passé classifiées dans le genre Trionyx, mais le genre a été dédoublé pour mettre en évidence les différences entre les espèces d'Asie et d'Amérique du Nord.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rafinesque, 1832 : Description of two new genera of soft shell turtles of North America. Atlantic Journal and Friend of Knowledge, vol. 1, p. 64–65 (texte intégral).</t>
         </is>
